--- a/data/(3,2)/just_degree/summary_by_file_odd_even_general.xlsx
+++ b/data/(3,2)/just_degree/summary_by_file_odd_even_general.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d28beaa99568fc0f/Documents/2-1/Project/data/(3^J2)/just_degree/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d28beaa99568fc0f/Documents/Project/data/(3^J2)/just_degree/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_30DDB0B7D3105B40F7992211595ED87656CCA194" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B80286DB-F1CA-4FAE-9D29-9636D9C60678}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="11_30DDB0B7D340D0486FFB3111595ED87656CCA194" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{92280BD0-1576-4E3E-8BA4-43EA641166B1}"/>
   <bookViews>
-    <workbookView xWindow="-25950" yWindow="75" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="75" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -414,8 +414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G348"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C200"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7900,8 +7900,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G350">
-    <sortCondition ref="A1:A350"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G349">
+    <sortCondition ref="A1:A349"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
